--- a/data/trans_bre/IP16B98-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Estudios-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 9,62</t>
+          <t>-17,8; 9,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,13</t>
+          <t>0,0; 20,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 10,66</t>
+          <t>-18,0; 10,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,79</t>
+          <t>0,0; 26,5</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,65; 55,38</t>
+          <t>-43,96; 55,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 53,63</t>
+          <t>-30,63; 52,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 124,75</t>
+          <t>-45,13; 124,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,89; 113,28</t>
+          <t>-32,52; 109,73</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 16,34</t>
+          <t>-11,39; 16,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 16,67</t>
+          <t>-4,47; 16,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 19,64</t>
+          <t>-11,89; 20,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 20,23</t>
+          <t>-4,71; 21,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B98-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B98-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 9,72</t>
+          <t>-18,33; 9,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,95</t>
+          <t>0,0; 23,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 10,76</t>
+          <t>-19,45; 10,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,5</t>
+          <t>0,0; 30,56</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 55,39</t>
+          <t>-44,8; 55,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 52,99</t>
+          <t>-30,07; 51,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 124,87</t>
+          <t>-45,62; 124,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 109,73</t>
+          <t>-33,34; 108,3</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 16,46</t>
+          <t>-13,86; 16,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 16,96</t>
+          <t>-2,76; 17,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 20,25</t>
+          <t>-14,33; 19,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 21,01</t>
+          <t>-2,93; 21,45</t>
         </is>
       </c>
     </row>
